--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-age.xlsx
@@ -17,12 +17,6 @@
     <sheet name="8.6-8.11" sheetId="8" r:id="rId8"/>
     <sheet name="9.0-9.5" sheetId="9" r:id="rId9"/>
     <sheet name="9.6-9.11" sheetId="10" r:id="rId10"/>
-    <sheet name="10.0-10.5" sheetId="11" r:id="rId11"/>
-    <sheet name="10.6-10.11" sheetId="12" r:id="rId12"/>
-    <sheet name="11.0-11.5" sheetId="13" r:id="rId13"/>
-    <sheet name="11.6-11.11" sheetId="14" r:id="rId14"/>
-    <sheet name="12.0-12.5" sheetId="15" r:id="rId15"/>
-    <sheet name="12.6-12.11" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -366,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,151 +380,151 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -538,7 +532,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -546,7 +540,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -554,7 +548,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -562,7 +556,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -570,7 +564,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -578,7 +572,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -586,7 +580,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -594,7 +588,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -602,7 +596,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -610,7 +604,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -618,7 +612,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -626,7 +620,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -634,7 +628,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -642,7 +636,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -650,7 +644,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -658,7 +652,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -666,7 +660,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -674,7 +668,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -682,7 +676,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -690,7 +684,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -698,7 +692,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -706,7 +700,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -714,7 +708,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -722,7 +716,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -730,7 +724,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -738,7 +732,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -746,7 +740,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -754,7 +748,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -762,7 +756,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -770,7 +764,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -778,7 +772,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -786,7 +780,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -794,7 +788,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -802,7 +796,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -810,7 +804,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -818,7 +812,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -826,7 +820,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -834,7 +828,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -842,7 +836,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -850,7 +844,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -858,7 +852,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -866,7 +860,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -874,7 +868,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -882,9 +876,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -895,7 +897,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -915,255 +917,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1171,7 +1173,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1179,7 +1181,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1187,7 +1189,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1195,7 +1197,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1203,7 +1205,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1211,7 +1213,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1219,7 +1221,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1227,7 +1229,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1235,7 +1237,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1243,7 +1245,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1251,7 +1253,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1259,7 +1261,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -1267,7 +1269,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -1275,7 +1277,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1283,7 +1285,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -1291,7 +1293,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -1299,7 +1301,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -1307,7 +1309,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1315,7 +1317,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -1323,7 +1325,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -1331,7 +1333,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -1339,7 +1341,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -1347,7 +1349,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -1355,7 +1357,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -1363,7 +1365,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -1371,7 +1373,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -1379,7 +1381,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -1387,7 +1389,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -1395,7 +1397,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -1403,7 +1405,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -1411,9 +1413,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -1422,9 +1432,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,247 +1454,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1692,7 +1702,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1700,7 +1710,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1708,7 +1718,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1716,7 +1726,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1724,7 +1734,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1732,7 +1742,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1740,7 +1750,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1748,7 +1758,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1756,7 +1766,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1764,7 +1774,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1772,7 +1782,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1780,7 +1790,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1788,7 +1798,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -1796,7 +1806,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -1804,7 +1814,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -1812,7 +1822,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -1820,7 +1830,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -1828,7 +1838,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -1836,7 +1846,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -1844,7 +1854,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -1852,7 +1862,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -1860,7 +1870,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -1868,7 +1878,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -1876,7 +1886,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -1884,7 +1894,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -1892,7 +1902,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -1900,7 +1910,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -1908,7 +1918,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -1916,7 +1926,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -1924,7 +1934,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -1932,7 +1942,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -1940,9 +1950,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -1951,9 +1969,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1973,255 +1991,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2229,7 +2247,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2237,7 +2255,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2245,7 +2263,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2253,7 +2271,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2261,7 +2279,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2269,7 +2287,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2277,7 +2295,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2285,7 +2303,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2293,7 +2311,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2301,7 +2319,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2309,7 +2327,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2317,7 +2335,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -2325,7 +2343,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -2333,7 +2351,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -2341,7 +2359,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2349,7 +2367,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -2357,7 +2375,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2365,7 +2383,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2373,7 +2391,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -2381,7 +2399,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -2389,7 +2407,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -2397,7 +2415,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -2405,7 +2423,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -2413,7 +2431,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -2421,7 +2439,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -2429,7 +2447,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -2437,7 +2455,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -2445,7 +2463,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -2453,7 +2471,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -2461,7 +2479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -2469,9 +2487,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -2480,9 +2506,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2502,255 +2528,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2758,7 +2784,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2766,7 +2792,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2774,7 +2800,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2782,7 +2808,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2790,7 +2816,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2798,7 +2824,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2806,7 +2832,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2814,7 +2840,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2822,7 +2848,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2830,7 +2856,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2838,7 +2864,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2846,7 +2872,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -2854,7 +2880,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -2862,7 +2888,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -2870,7 +2896,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -2878,7 +2904,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -2886,7 +2912,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -2894,7 +2920,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -2902,7 +2928,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -2910,7 +2936,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -2918,7 +2944,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -2926,7 +2952,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -2934,7 +2960,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -2942,7 +2968,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -2950,7 +2976,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -2958,7 +2984,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -2966,7 +2992,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -2974,7 +3000,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -2982,7 +3008,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -2990,7 +3016,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -2998,9 +3024,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -3009,9 +3043,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3031,255 +3065,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -3287,7 +3321,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -3295,7 +3329,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -3303,7 +3337,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3311,7 +3345,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3319,7 +3353,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3327,7 +3361,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3335,7 +3369,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3343,7 +3377,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3351,7 +3385,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3359,7 +3393,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3367,7 +3401,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3375,7 +3409,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3383,7 +3417,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3391,7 +3425,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3399,7 +3433,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3407,7 +3441,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3415,7 +3449,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3423,7 +3457,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3431,7 +3465,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -3439,7 +3473,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -3447,7 +3481,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -3455,7 +3489,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -3463,7 +3497,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -3471,7 +3505,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -3479,7 +3513,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -3487,7 +3521,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -3495,7 +3529,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -3503,7 +3537,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -3511,7 +3545,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -3519,7 +3553,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -3527,9 +3561,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -3538,9 +3580,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3560,247 +3602,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -3808,7 +3850,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -3816,7 +3858,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -3824,7 +3866,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -3832,7 +3874,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3840,7 +3882,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3848,7 +3890,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3856,7 +3898,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3864,7 +3906,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3872,7 +3914,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3880,7 +3922,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3888,7 +3930,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3896,7 +3938,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3904,7 +3946,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -3912,7 +3954,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -3920,7 +3962,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -3928,7 +3970,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -3936,7 +3978,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -3944,7 +3986,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -3952,7 +3994,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -3960,7 +4002,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -3968,7 +4010,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -3976,7 +4018,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -3984,7 +4026,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -3992,7 +4034,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -4000,7 +4042,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -4008,7 +4050,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -4016,7 +4058,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -4024,7 +4066,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -4032,7 +4074,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -4040,7 +4082,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -4048,7 +4090,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -4056,9 +4098,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -4067,9 +4117,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4089,239 +4139,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4329,7 +4379,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4337,7 +4387,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4345,7 +4395,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4353,7 +4403,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4361,7 +4411,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4369,7 +4419,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4377,7 +4427,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4385,7 +4435,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4393,7 +4443,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4401,7 +4451,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4409,7 +4459,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4417,7 +4467,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4425,7 +4475,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4433,7 +4483,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -4441,7 +4491,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -4449,7 +4499,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4457,7 +4507,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4465,7 +4515,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -4473,7 +4523,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -4481,7 +4531,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -4489,7 +4539,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -4497,7 +4547,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -4505,7 +4555,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -4513,7 +4563,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -4521,7 +4571,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -4529,7 +4579,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -4537,7 +4587,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -4545,7 +4595,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -4553,7 +4603,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -4561,7 +4611,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -4569,7 +4619,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -4577,7 +4627,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -4585,9 +4635,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -4596,9 +4654,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4618,231 +4676,231 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -4850,7 +4908,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4858,7 +4916,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4866,7 +4924,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4874,7 +4932,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4882,7 +4940,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4890,7 +4948,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4898,7 +4956,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4906,7 +4964,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4914,7 +4972,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4922,7 +4980,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4930,7 +4988,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4938,7 +4996,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4946,7 +5004,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4954,7 +5012,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4962,7 +5020,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -4970,7 +5028,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -4978,7 +5036,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -4986,7 +5044,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -4994,7 +5052,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -5002,7 +5060,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -5010,7 +5068,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -5018,7 +5076,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -5026,7 +5084,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -5034,7 +5092,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -5042,7 +5100,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -5050,7 +5108,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -5058,7 +5116,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -5066,7 +5124,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -5074,7 +5132,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -5082,7 +5140,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -5090,7 +5148,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -5098,7 +5156,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -5106,7 +5164,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -5114,9 +5172,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>
@@ -5125,9 +5191,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5147,239 +5213,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5387,7 +5453,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5395,7 +5461,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5403,7 +5469,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5411,7 +5477,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5419,7 +5485,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5427,7 +5493,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5435,7 +5501,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5443,7 +5509,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5451,7 +5517,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5459,7 +5525,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -5467,7 +5533,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -5475,7 +5541,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -5483,7 +5549,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -5491,7 +5557,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>130</v>
@@ -5499,7 +5565,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>130</v>
@@ -5507,7 +5573,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>130</v>
@@ -5515,7 +5581,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>130</v>
@@ -5523,7 +5589,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>130</v>
@@ -5531,7 +5597,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>130</v>
@@ -5539,7 +5605,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>130</v>
@@ -5547,7 +5613,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>130</v>
@@ -5555,7 +5621,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>130</v>
@@ -5563,7 +5629,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>130</v>
@@ -5571,7 +5637,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -5579,7 +5645,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -5587,7 +5653,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>130</v>
@@ -5595,7 +5661,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>130</v>
@@ -5603,7 +5669,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>130</v>
@@ -5611,7 +5677,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>130</v>
@@ -5619,7 +5685,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>130</v>
@@ -5627,7 +5693,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>130</v>
@@ -5635,7 +5701,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>130</v>
@@ -5643,3183 +5709,17 @@
     </row>
     <row r="64">
       <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
+      <c r="B65">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-age.xlsx
@@ -17,6 +17,12 @@
     <sheet name="8.6-8.11" sheetId="8" r:id="rId8"/>
     <sheet name="9.0-9.5" sheetId="9" r:id="rId9"/>
     <sheet name="9.6-9.11" sheetId="10" r:id="rId10"/>
+    <sheet name="10.0-10.5" sheetId="11" r:id="rId11"/>
+    <sheet name="10.6-10.11" sheetId="12" r:id="rId12"/>
+    <sheet name="11.0-11.5" sheetId="13" r:id="rId13"/>
+    <sheet name="11.6-11.11" sheetId="14" r:id="rId14"/>
+    <sheet name="12.0-12.5" sheetId="15" r:id="rId15"/>
+    <sheet name="12.6-12.11" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -383,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +437,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +469,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +477,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +501,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +517,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +533,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -920,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -928,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -944,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -952,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -968,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -976,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -984,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1040,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1048,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1072,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1110,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1161,6 +1167,3228 @@
       </c>
       <c r="B32">
         <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1457,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1465,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1473,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -1481,7 +4709,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1489,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1497,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1505,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1513,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1521,7 +4749,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -1529,7 +4757,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +4773,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -1553,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -1561,7 +4789,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1569,7 +4797,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
@@ -1577,7 +4805,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -1585,7 +4813,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -1593,7 +4821,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -1601,7 +4829,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -1609,7 +4837,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
@@ -1994,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -2002,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -2010,7 +5238,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -2018,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2026,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2034,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -2042,7 +5270,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2050,7 +5278,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -2058,7 +5286,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -2066,7 +5294,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -2074,7 +5302,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -2082,7 +5310,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -2090,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -2098,7 +5326,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -2106,7 +5334,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -2114,7 +5342,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -2122,7 +5350,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -2130,7 +5358,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +5366,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
@@ -2146,7 +5374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -2154,7 +5382,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -2563,7 +5791,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -2571,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2579,7 +5807,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -2595,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -2603,7 +5831,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -2611,7 +5839,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -2627,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -2635,7 +5863,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -2659,7 +5887,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -2667,7 +5895,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -2691,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -2699,7 +5927,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -3068,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -3132,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -3164,7 +6392,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -3605,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -3613,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -3621,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -3629,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -3661,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -3725,7 +6953,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -3749,7 +6977,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -3757,7 +6985,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -3781,7 +7009,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -3789,7 +7017,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
@@ -4142,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -4150,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -4158,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -4166,7 +7394,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -4174,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -4182,7 +7410,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -4190,7 +7418,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -4254,7 +7482,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -4262,7 +7490,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -4286,7 +7514,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -4294,7 +7522,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -4310,7 +7538,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -4318,7 +7546,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -4326,7 +7554,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -4342,7 +7570,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
@@ -4679,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -4687,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -4695,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -4703,7 +7931,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -4711,7 +7939,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -4719,7 +7947,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -4727,7 +7955,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -4735,7 +7963,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -4759,7 +7987,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -4767,7 +7995,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -4799,7 +8027,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -4823,7 +8051,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -4831,7 +8059,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
@@ -4855,7 +8083,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -4863,7 +8091,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -4879,7 +8107,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -4887,7 +8115,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -4895,7 +8123,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -5216,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -5224,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -5232,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -5240,7 +8468,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -5248,7 +8476,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -5256,7 +8484,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -5264,7 +8492,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -5272,7 +8500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -5344,7 +8572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -5400,7 +8628,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -5432,7 +8660,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -5440,7 +8668,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pflsum1-raw-ss-lookup-tabbed-age.xlsx
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -437,7 +437,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -445,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -453,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -461,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -469,7 +469,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -477,7 +477,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -485,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -493,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -501,7 +501,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -509,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -517,7 +517,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -533,7 +533,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -942,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1022,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1030,7 +1030,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -1038,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -1054,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1062,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -1070,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -1110,7 +1110,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1118,7 +1118,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -1126,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1134,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -1142,7 +1142,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1150,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -1158,7 +1158,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -1166,7 +1166,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1559,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1583,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -1591,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -1631,7 +1631,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1639,7 +1639,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -1647,7 +1647,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -1655,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -1663,7 +1663,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -1671,7 +1671,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -1679,7 +1679,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -1687,7 +1687,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -1695,7 +1695,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -1703,7 +1703,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -1711,7 +1711,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -2080,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -2088,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2096,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2112,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -2120,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -2128,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -2136,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -2152,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -2192,7 +2192,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -2200,7 +2200,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -2216,7 +2216,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -2224,7 +2224,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -2232,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -2240,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -2256,7 +2256,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -2561,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -2569,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -2577,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -2585,7 +2585,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -2593,7 +2593,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -2601,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -2609,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -2617,7 +2617,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2625,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -2633,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -2649,7 +2649,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2657,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -2665,7 +2665,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2673,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -2681,7 +2681,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -2689,7 +2689,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -2697,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -2705,7 +2705,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -2713,7 +2713,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -2721,7 +2721,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -2729,7 +2729,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -2761,7 +2761,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -2777,7 +2777,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -2785,7 +2785,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -2793,7 +2793,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -2801,7 +2801,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -2809,7 +2809,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -3098,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -3106,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -3114,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -3122,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -3130,7 +3130,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -3138,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -3146,7 +3146,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -3154,7 +3154,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -3162,7 +3162,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -3170,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -3178,7 +3178,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -3186,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -3194,7 +3194,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -3202,7 +3202,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -3210,7 +3210,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -3218,7 +3218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3226,7 +3226,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -3234,7 +3234,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -3242,7 +3242,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -3250,7 +3250,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -3258,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -3266,7 +3266,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -3274,7 +3274,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -3282,7 +3282,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -3290,7 +3290,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -3298,7 +3298,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -3306,7 +3306,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -3314,7 +3314,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -3322,7 +3322,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -3330,7 +3330,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -3338,7 +3338,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -3346,7 +3346,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -3354,7 +3354,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -3362,7 +3362,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -3627,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -3643,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -3651,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -3659,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -3667,7 +3667,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -3675,7 +3675,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -3683,7 +3683,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -3691,7 +3691,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -3699,7 +3699,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -3707,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -3715,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -3723,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -3731,7 +3731,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -3739,7 +3739,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3747,7 +3747,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -3755,7 +3755,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -3763,7 +3763,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3771,7 +3771,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -3779,7 +3779,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -3787,7 +3787,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3795,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -3803,7 +3803,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -3811,7 +3811,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -3819,7 +3819,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -3827,7 +3827,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -3835,7 +3835,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -3843,7 +3843,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -3851,7 +3851,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -3859,7 +3859,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -3867,7 +3867,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -3875,7 +3875,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -3883,7 +3883,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -3891,7 +3891,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -3899,7 +3899,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -3907,7 +3907,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -3915,7 +3915,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -3923,7 +3923,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -4164,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -4172,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -4188,7 +4188,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -4196,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -4204,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -4212,7 +4212,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -4220,7 +4220,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -4228,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -4236,7 +4236,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -4244,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -4252,7 +4252,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -4260,7 +4260,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -4268,7 +4268,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -4276,7 +4276,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -4284,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -4292,7 +4292,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -4300,7 +4300,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -4308,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -4316,7 +4316,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -4324,7 +4324,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -4332,7 +4332,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -4340,7 +4340,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -4348,7 +4348,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -4356,7 +4356,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -4364,7 +4364,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -4372,7 +4372,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -4380,7 +4380,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -4388,7 +4388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -4396,7 +4396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -4404,7 +4404,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -4412,7 +4412,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -4420,7 +4420,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -4428,7 +4428,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -4436,7 +4436,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -4444,7 +4444,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -4452,7 +4452,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -4460,7 +4460,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -4468,7 +4468,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -4476,7 +4476,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -4484,7 +4484,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -4701,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -4709,7 +4709,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -4717,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -4725,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -4733,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -4741,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -4749,7 +4749,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -4757,7 +4757,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -4765,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -4773,7 +4773,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -4781,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -4789,7 +4789,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -4797,7 +4797,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -4805,7 +4805,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -4813,7 +4813,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -4821,7 +4821,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
@@ -4829,7 +4829,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -4837,7 +4837,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
@@ -5246,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -5254,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -5278,7 +5278,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -5326,7 +5326,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -5334,7 +5334,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -5350,7 +5350,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -5358,7 +5358,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
@@ -5366,7 +5366,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
@@ -5382,7 +5382,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -5783,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -5791,7 +5791,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -5799,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -5807,7 +5807,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -5815,7 +5815,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -5823,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -5831,7 +5831,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -5839,7 +5839,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -5847,7 +5847,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -5855,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -5863,7 +5863,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -5871,7 +5871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -5879,7 +5879,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -5887,7 +5887,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -5895,7 +5895,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -5903,7 +5903,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -5911,7 +5911,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -5919,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -5927,7 +5927,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -5935,7 +5935,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -6312,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -6320,7 +6320,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -6328,7 +6328,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -6336,7 +6336,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -6344,7 +6344,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -6352,7 +6352,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -6360,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -6368,7 +6368,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -6376,7 +6376,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -6384,7 +6384,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -6392,7 +6392,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -6400,7 +6400,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -6408,7 +6408,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -6416,7 +6416,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -6424,7 +6424,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -6432,7 +6432,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -6440,7 +6440,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -6448,7 +6448,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -6456,7 +6456,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
@@ -6464,7 +6464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
@@ -6472,7 +6472,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -6480,7 +6480,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -6849,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -6857,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -6865,7 +6865,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -6873,7 +6873,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -6881,7 +6881,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -6889,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -6897,7 +6897,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -6905,7 +6905,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -6913,7 +6913,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -6921,7 +6921,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -6929,7 +6929,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -6937,7 +6937,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -6945,7 +6945,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -6953,7 +6953,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -6961,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -6969,7 +6969,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -6977,7 +6977,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -6985,7 +6985,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -6993,7 +6993,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -7001,7 +7001,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -7009,7 +7009,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -7017,7 +7017,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -7025,7 +7025,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -7378,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -7394,7 +7394,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -7402,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -7410,7 +7410,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -7418,7 +7418,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -7426,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -7434,7 +7434,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -7442,7 +7442,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -7450,7 +7450,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -7458,7 +7458,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -7466,7 +7466,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -7474,7 +7474,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -7482,7 +7482,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -7490,7 +7490,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -7498,7 +7498,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -7506,7 +7506,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -7514,7 +7514,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -7522,7 +7522,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -7530,7 +7530,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -7538,7 +7538,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -7546,7 +7546,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
@@ -7554,7 +7554,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
@@ -7562,7 +7562,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -7570,7 +7570,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -7923,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -7931,7 +7931,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -7939,7 +7939,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -7947,7 +7947,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -7955,7 +7955,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -7963,7 +7963,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -7971,7 +7971,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -7979,7 +7979,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -7987,7 +7987,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -7995,7 +7995,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -8003,7 +8003,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -8011,7 +8011,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -8019,7 +8019,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -8027,7 +8027,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -8035,7 +8035,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -8043,7 +8043,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -8051,7 +8051,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -8059,7 +8059,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -8067,7 +8067,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -8075,7 +8075,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -8083,7 +8083,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -8091,7 +8091,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -8099,7 +8099,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -8107,7 +8107,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -8115,7 +8115,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -8123,7 +8123,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -8452,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -8460,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -8468,7 +8468,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -8484,7 +8484,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -8492,7 +8492,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -8500,7 +8500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -8508,7 +8508,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -8516,7 +8516,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -8524,7 +8524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -8532,7 +8532,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -8540,7 +8540,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -8548,7 +8548,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -8556,7 +8556,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -8564,7 +8564,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -8572,7 +8572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -8580,7 +8580,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -8588,7 +8588,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -8596,7 +8596,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -8604,7 +8604,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -8612,7 +8612,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -8620,7 +8620,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -8628,7 +8628,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
